--- a/data/urchin_data.xlsx
+++ b/data/urchin_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/cltaim001_myuct_ac_za/Documents/msc_thesis/parechinus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E924C2-E5AA-4547-8BCE-A6115A93F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{591DAD11-F649-4F6C-BFEB-FEDD7E383103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{795CD901-CD48-4428-85A0-2C53BB6F6295}"/>
   </bookViews>
@@ -38515,6 +38515,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEAC778B8D440E41BD63D4A6C75DE03B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c52ad93ce32cfb4566894f3753cc432d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dbb7807b-0bfa-4867-be99-c973128321c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1cc536098c9f4c9eab4fb3c6a16c457" ns3:_="">
     <xsd:import namespace="dbb7807b-0bfa-4867-be99-c973128321c8"/>
@@ -38696,35 +38711,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38760D8-0749-458A-B176-DEEDC8184500}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D017A7-4D8A-4270-847B-F6AA182C03F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dbb7807b-0bfa-4867-be99-c973128321c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38746,9 +38736,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93D017A7-4D8A-4270-847B-F6AA182C03F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D38760D8-0749-458A-B176-DEEDC8184500}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dbb7807b-0bfa-4867-be99-c973128321c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>